--- a/biology/Zoologie/Borophaginae/Borophaginae.xlsx
+++ b/biology/Zoologie/Borophaginae/Borophaginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Borophaginés (Borophaginae) plus connus sous le nom de « chiens broyeurs d'os » forment une sous-famille éteinte de canidés. Ils étaient endémiques en Amérique du Nord de l'Oligocène au Pliocène il y a environ entre −33,3 et −2,5 Ma (millions d'années).
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Borophaginae, apparemment descendus de la sous-famille des Hesperocyoninae, ont évolué pour devenir beaucoup plus grands que leurs prédécesseurs, et ont occupé un vaste éventail de créneaux à la fin du Néogène en Amérique du Nord.
-Certaines espèces de borophaginés étaient grands comme des lions des temps modernes, d'autres aussi petits que les ratons laveurs ou des coyotes, et étaient omnivores[2].
+Certaines espèces de borophaginés étaient grands comme des lions des temps modernes, d'autres aussi petits que les ratons laveurs ou des coyotes, et étaient omnivores.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Taxonomie des Borophaginae, d'après Wang et al.[3] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Taxonomie des Borophaginae, d'après Wang et al. 
 Famille Canidae
 Sous-famille †Borophaginae
 †Archaeocyon 33—26 Ma, a existé 7 millions d'années
@@ -576,7 +592,7 @@
 †Protepicyon 16—12 Ma, a existé 2,7 millions d'années
 †Epicyon 12—10 Ma, a existé 2 millions d'années
 †Borophagus (=Osteoborus) 12—5 Ma, a existé 7 millions d'années
-Phylogénie d'après Wang et al. (1999)[3] :
+Phylogénie d'après Wang et al. (1999) :
 Canidae
 Hesperocyoninae
 Caninae
